--- a/InputFiles/CCDI/phs002790-2.xlsx
+++ b/InputFiles/CCDI/phs002790-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA388E-6CC8-4CD8-B507-24CE033090A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97966994-2BEA-4CC8-BE93-7439E252F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0787B5-A770-4AE6-BD01-D0CCEEE43937}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C0787B5-A770-4AE6-BD01-D0CCEEE43937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
   <si>
     <t>participant_id</t>
   </si>
@@ -2136,2121 +2136,6 @@
   </si>
   <si>
     <t>PBCBTJ</t>
-  </si>
-  <si>
-    <t>PBCBTN</t>
-  </si>
-  <si>
-    <t>PBCBTR</t>
-  </si>
-  <si>
-    <t>PBCBTY</t>
-  </si>
-  <si>
-    <t>PBCBUA</t>
-  </si>
-  <si>
-    <t>PBCBUD</t>
-  </si>
-  <si>
-    <t>PBCBUJ</t>
-  </si>
-  <si>
-    <t>PBCBUL</t>
-  </si>
-  <si>
-    <t>PBCBUS</t>
-  </si>
-  <si>
-    <t>PBCBUV</t>
-  </si>
-  <si>
-    <t>PBCBUW</t>
-  </si>
-  <si>
-    <t>PBCBVD</t>
-  </si>
-  <si>
-    <t>PBCBVP</t>
-  </si>
-  <si>
-    <t>PBCBVS</t>
-  </si>
-  <si>
-    <t>PBCBVV</t>
-  </si>
-  <si>
-    <t>PBCBVY</t>
-  </si>
-  <si>
-    <t>PBCBWD</t>
-  </si>
-  <si>
-    <t>PBCBWI</t>
-  </si>
-  <si>
-    <t>PBCBWN</t>
-  </si>
-  <si>
-    <t>PBCBXF</t>
-  </si>
-  <si>
-    <t>PBCBXJ</t>
-  </si>
-  <si>
-    <t>PBCBXL</t>
-  </si>
-  <si>
-    <t>PBCBXM</t>
-  </si>
-  <si>
-    <t>PBCBXP</t>
-  </si>
-  <si>
-    <t>PBCBXV</t>
-  </si>
-  <si>
-    <t>PBCBXZ</t>
-  </si>
-  <si>
-    <t>PBCBYB</t>
-  </si>
-  <si>
-    <t>PBCBYG</t>
-  </si>
-  <si>
-    <t>PBCBYH</t>
-  </si>
-  <si>
-    <t>PBCBYV</t>
-  </si>
-  <si>
-    <t>PBCBYX</t>
-  </si>
-  <si>
-    <t>PBCBZB</t>
-  </si>
-  <si>
-    <t>PBCBZJ</t>
-  </si>
-  <si>
-    <t>PBCBZK</t>
-  </si>
-  <si>
-    <t>PBCBZY</t>
-  </si>
-  <si>
-    <t>PBCCAW</t>
-  </si>
-  <si>
-    <t>PBCCBA</t>
-  </si>
-  <si>
-    <t>PBCCBE</t>
-  </si>
-  <si>
-    <t>PBCCBJ</t>
-  </si>
-  <si>
-    <t>PBCCBY</t>
-  </si>
-  <si>
-    <t>PBCCCI</t>
-  </si>
-  <si>
-    <t>PBCCCJ</t>
-  </si>
-  <si>
-    <t>PBCCCU</t>
-  </si>
-  <si>
-    <t>PBCCCY</t>
-  </si>
-  <si>
-    <t>PBCCDC</t>
-  </si>
-  <si>
-    <t>PBCCDF</t>
-  </si>
-  <si>
-    <t>PBCCDJ</t>
-  </si>
-  <si>
-    <t>PBCCDT</t>
-  </si>
-  <si>
-    <t>PBCCDY</t>
-  </si>
-  <si>
-    <t>PBCCEA</t>
-  </si>
-  <si>
-    <t>PBCCEB</t>
-  </si>
-  <si>
-    <t>PBCCED</t>
-  </si>
-  <si>
-    <t>PBCCEF</t>
-  </si>
-  <si>
-    <t>PBCCEK</t>
-  </si>
-  <si>
-    <t>PBCCEP</t>
-  </si>
-  <si>
-    <t>PBCCET</t>
-  </si>
-  <si>
-    <t>PBCCEU</t>
-  </si>
-  <si>
-    <t>PBCCFA</t>
-  </si>
-  <si>
-    <t>PBCCFK</t>
-  </si>
-  <si>
-    <t>PBCCFP</t>
-  </si>
-  <si>
-    <t>PBCCFU</t>
-  </si>
-  <si>
-    <t>PBCCGC</t>
-  </si>
-  <si>
-    <t>PBCCGJ</t>
-  </si>
-  <si>
-    <t>PBCCGK</t>
-  </si>
-  <si>
-    <t>PBCCGN</t>
-  </si>
-  <si>
-    <t>PBCCHE</t>
-  </si>
-  <si>
-    <t>PBCCHX</t>
-  </si>
-  <si>
-    <t>PBCCIK</t>
-  </si>
-  <si>
-    <t>PBCCIM</t>
-  </si>
-  <si>
-    <t>PBCCIP</t>
-  </si>
-  <si>
-    <t>PBCCJB</t>
-  </si>
-  <si>
-    <t>PBCCJG</t>
-  </si>
-  <si>
-    <t>PBCCJH</t>
-  </si>
-  <si>
-    <t>PBCCJS</t>
-  </si>
-  <si>
-    <t>PBCCJT</t>
-  </si>
-  <si>
-    <t>PBCCJV</t>
-  </si>
-  <si>
-    <t>PBCCJY</t>
-  </si>
-  <si>
-    <t>PBCCKA</t>
-  </si>
-  <si>
-    <t>PBCCKE</t>
-  </si>
-  <si>
-    <t>PBCCKJ</t>
-  </si>
-  <si>
-    <t>PBCCKK</t>
-  </si>
-  <si>
-    <t>PBCCKS</t>
-  </si>
-  <si>
-    <t>PBCCKU</t>
-  </si>
-  <si>
-    <t>PBCCLA</t>
-  </si>
-  <si>
-    <t>PBCCLC</t>
-  </si>
-  <si>
-    <t>PBCCLD</t>
-  </si>
-  <si>
-    <t>PBCCLP</t>
-  </si>
-  <si>
-    <t>PBCCLU</t>
-  </si>
-  <si>
-    <t>PBCCLV</t>
-  </si>
-  <si>
-    <t>PBCCMA</t>
-  </si>
-  <si>
-    <t>PBCCMC</t>
-  </si>
-  <si>
-    <t>PBCCME</t>
-  </si>
-  <si>
-    <t>PBCCMF</t>
-  </si>
-  <si>
-    <t>PBCCMK</t>
-  </si>
-  <si>
-    <t>PBCCNC</t>
-  </si>
-  <si>
-    <t>PBCCNN</t>
-  </si>
-  <si>
-    <t>PBCCNR</t>
-  </si>
-  <si>
-    <t>PBCCPD</t>
-  </si>
-  <si>
-    <t>PBCCRF</t>
-  </si>
-  <si>
-    <t>PBCCRL</t>
-  </si>
-  <si>
-    <t>PBCCRT</t>
-  </si>
-  <si>
-    <t>PBCCRU</t>
-  </si>
-  <si>
-    <t>PBCCRY</t>
-  </si>
-  <si>
-    <t>PBCCSA</t>
-  </si>
-  <si>
-    <t>PBCCSD</t>
-  </si>
-  <si>
-    <t>PBCCSS</t>
-  </si>
-  <si>
-    <t>PBCCST</t>
-  </si>
-  <si>
-    <t>PBCCSW</t>
-  </si>
-  <si>
-    <t>PBCCSZ</t>
-  </si>
-  <si>
-    <t>PBCCTD</t>
-  </si>
-  <si>
-    <t>PBCCTE</t>
-  </si>
-  <si>
-    <t>PBCCTG</t>
-  </si>
-  <si>
-    <t>PBCCTU</t>
-  </si>
-  <si>
-    <t>PBCCTV</t>
-  </si>
-  <si>
-    <t>PBCCTY</t>
-  </si>
-  <si>
-    <t>PBCCUB</t>
-  </si>
-  <si>
-    <t>PBCCUM</t>
-  </si>
-  <si>
-    <t>PBCCVE</t>
-  </si>
-  <si>
-    <t>PBCCVL</t>
-  </si>
-  <si>
-    <t>PBCCVP</t>
-  </si>
-  <si>
-    <t>PBCCVR</t>
-  </si>
-  <si>
-    <t>PBCCVU</t>
-  </si>
-  <si>
-    <t>PBCCXB</t>
-  </si>
-  <si>
-    <t>PBCCXE</t>
-  </si>
-  <si>
-    <t>PBCCXK</t>
-  </si>
-  <si>
-    <t>PBCCXL</t>
-  </si>
-  <si>
-    <t>PBCCXV</t>
-  </si>
-  <si>
-    <t>PBCCXW</t>
-  </si>
-  <si>
-    <t>PBCCYH</t>
-  </si>
-  <si>
-    <t>PBCCYI</t>
-  </si>
-  <si>
-    <t>PBCCYS</t>
-  </si>
-  <si>
-    <t>PBCCYT</t>
-  </si>
-  <si>
-    <t>PBCCYX</t>
-  </si>
-  <si>
-    <t>PBCCYZ</t>
-  </si>
-  <si>
-    <t>PBCCZB</t>
-  </si>
-  <si>
-    <t>PBCCZD</t>
-  </si>
-  <si>
-    <t>PBCCZM</t>
-  </si>
-  <si>
-    <t>PBCCZP</t>
-  </si>
-  <si>
-    <t>PBCCZR</t>
-  </si>
-  <si>
-    <t>PBCCZT</t>
-  </si>
-  <si>
-    <t>PBCCZW</t>
-  </si>
-  <si>
-    <t>PBCDAC</t>
-  </si>
-  <si>
-    <t>PBCDAI</t>
-  </si>
-  <si>
-    <t>PBCDAK</t>
-  </si>
-  <si>
-    <t>PBCDAS</t>
-  </si>
-  <si>
-    <t>PBCDAZ</t>
-  </si>
-  <si>
-    <t>PBCDBD</t>
-  </si>
-  <si>
-    <t>PBCDBM</t>
-  </si>
-  <si>
-    <t>PBCDBS</t>
-  </si>
-  <si>
-    <t>PBCDBV</t>
-  </si>
-  <si>
-    <t>PBCDBX</t>
-  </si>
-  <si>
-    <t>PBCDBZ</t>
-  </si>
-  <si>
-    <t>PBCDCA</t>
-  </si>
-  <si>
-    <t>PBCDCC</t>
-  </si>
-  <si>
-    <t>PBCDCG</t>
-  </si>
-  <si>
-    <t>PBCDCK</t>
-  </si>
-  <si>
-    <t>PBCDCR</t>
-  </si>
-  <si>
-    <t>PBCDDC</t>
-  </si>
-  <si>
-    <t>PBCDDH</t>
-  </si>
-  <si>
-    <t>PBCDDR</t>
-  </si>
-  <si>
-    <t>PBCDDW</t>
-  </si>
-  <si>
-    <t>PBCDDX</t>
-  </si>
-  <si>
-    <t>PBCDEH</t>
-  </si>
-  <si>
-    <t>PBCDEM</t>
-  </si>
-  <si>
-    <t>PBCDES</t>
-  </si>
-  <si>
-    <t>PBCDET</t>
-  </si>
-  <si>
-    <t>PBCDEY</t>
-  </si>
-  <si>
-    <t>PBCDFA</t>
-  </si>
-  <si>
-    <t>PBCDFE</t>
-  </si>
-  <si>
-    <t>PBCDFH</t>
-  </si>
-  <si>
-    <t>PBCDFM</t>
-  </si>
-  <si>
-    <t>PBCDFP</t>
-  </si>
-  <si>
-    <t>PBCDGF</t>
-  </si>
-  <si>
-    <t>PBCDGG</t>
-  </si>
-  <si>
-    <t>PBCDGP</t>
-  </si>
-  <si>
-    <t>PBCDGZ</t>
-  </si>
-  <si>
-    <t>PBCDHN</t>
-  </si>
-  <si>
-    <t>PBCDHR</t>
-  </si>
-  <si>
-    <t>PBCDHU</t>
-  </si>
-  <si>
-    <t>PBCDHX</t>
-  </si>
-  <si>
-    <t>PBCDHY</t>
-  </si>
-  <si>
-    <t>PBCDIA</t>
-  </si>
-  <si>
-    <t>PBCDIB</t>
-  </si>
-  <si>
-    <t>PBCDIC</t>
-  </si>
-  <si>
-    <t>PBCDID</t>
-  </si>
-  <si>
-    <t>PBCDIY</t>
-  </si>
-  <si>
-    <t>PBCDJM</t>
-  </si>
-  <si>
-    <t>PBCDJY</t>
-  </si>
-  <si>
-    <t>PBCDKF</t>
-  </si>
-  <si>
-    <t>PBCDKR</t>
-  </si>
-  <si>
-    <t>PBCDKY</t>
-  </si>
-  <si>
-    <t>PBCDKZ</t>
-  </si>
-  <si>
-    <t>PBCDLB</t>
-  </si>
-  <si>
-    <t>PBCDLD</t>
-  </si>
-  <si>
-    <t>PBCDLF</t>
-  </si>
-  <si>
-    <t>PBCDLI</t>
-  </si>
-  <si>
-    <t>PBCDLM</t>
-  </si>
-  <si>
-    <t>PBCDLV</t>
-  </si>
-  <si>
-    <t>PBCDLX</t>
-  </si>
-  <si>
-    <t>PBCDMG</t>
-  </si>
-  <si>
-    <t>PBCDMK</t>
-  </si>
-  <si>
-    <t>PBCDMN</t>
-  </si>
-  <si>
-    <t>PBCDNA</t>
-  </si>
-  <si>
-    <t>PBCDNI</t>
-  </si>
-  <si>
-    <t>PBCDNM</t>
-  </si>
-  <si>
-    <t>PBCDNW</t>
-  </si>
-  <si>
-    <t>PBCDPB</t>
-  </si>
-  <si>
-    <t>PBCDPG</t>
-  </si>
-  <si>
-    <t>PBCDPH</t>
-  </si>
-  <si>
-    <t>PBCDPN</t>
-  </si>
-  <si>
-    <t>PBCDPP</t>
-  </si>
-  <si>
-    <t>PBCDRC</t>
-  </si>
-  <si>
-    <t>PBCDRD</t>
-  </si>
-  <si>
-    <t>PBCDRK</t>
-  </si>
-  <si>
-    <t>PBCDRP</t>
-  </si>
-  <si>
-    <t>PBCDSK</t>
-  </si>
-  <si>
-    <t>PBCDSP</t>
-  </si>
-  <si>
-    <t>PBCDSX</t>
-  </si>
-  <si>
-    <t>PBCDTI</t>
-  </si>
-  <si>
-    <t>PBCDTJ</t>
-  </si>
-  <si>
-    <t>PBCDTZ</t>
-  </si>
-  <si>
-    <t>PBCDUA</t>
-  </si>
-  <si>
-    <t>PBCDUV</t>
-  </si>
-  <si>
-    <t>PBCDVA</t>
-  </si>
-  <si>
-    <t>PBCDVC</t>
-  </si>
-  <si>
-    <t>PBCDVL</t>
-  </si>
-  <si>
-    <t>PBCDVT</t>
-  </si>
-  <si>
-    <t>PBCDVY</t>
-  </si>
-  <si>
-    <t>PBCDVZ</t>
-  </si>
-  <si>
-    <t>PBCDWD</t>
-  </si>
-  <si>
-    <t>PBCDWG</t>
-  </si>
-  <si>
-    <t>PBCDWK</t>
-  </si>
-  <si>
-    <t>PBCDXB</t>
-  </si>
-  <si>
-    <t>PBCDYK</t>
-  </si>
-  <si>
-    <t>PBCDYM</t>
-  </si>
-  <si>
-    <t>PBCDYN</t>
-  </si>
-  <si>
-    <t>PBCDYU</t>
-  </si>
-  <si>
-    <t>PBCDYY</t>
-  </si>
-  <si>
-    <t>PBCDZF</t>
-  </si>
-  <si>
-    <t>PBCDZM</t>
-  </si>
-  <si>
-    <t>PBCDZR</t>
-  </si>
-  <si>
-    <t>PBCDZY</t>
-  </si>
-  <si>
-    <t>PBCEAE</t>
-  </si>
-  <si>
-    <t>PBCEAF</t>
-  </si>
-  <si>
-    <t>PBCEAH</t>
-  </si>
-  <si>
-    <t>PBCEAP</t>
-  </si>
-  <si>
-    <t>PBCEAX</t>
-  </si>
-  <si>
-    <t>PBCEBH</t>
-  </si>
-  <si>
-    <t>PBCEBM</t>
-  </si>
-  <si>
-    <t>PBCEBZ</t>
-  </si>
-  <si>
-    <t>PBCECF</t>
-  </si>
-  <si>
-    <t>PBCECG</t>
-  </si>
-  <si>
-    <t>PBCECL</t>
-  </si>
-  <si>
-    <t>PBCECS</t>
-  </si>
-  <si>
-    <t>PBCECZ</t>
-  </si>
-  <si>
-    <t>PBCEDA</t>
-  </si>
-  <si>
-    <t>PBCEDL</t>
-  </si>
-  <si>
-    <t>PBCEDN</t>
-  </si>
-  <si>
-    <t>PBCEDS</t>
-  </si>
-  <si>
-    <t>PBCEEB</t>
-  </si>
-  <si>
-    <t>PBCEEC</t>
-  </si>
-  <si>
-    <t>PBCEEN</t>
-  </si>
-  <si>
-    <t>PBCEER</t>
-  </si>
-  <si>
-    <t>PBCEET</t>
-  </si>
-  <si>
-    <t>PBCEFF</t>
-  </si>
-  <si>
-    <t>PBCEFH</t>
-  </si>
-  <si>
-    <t>PBCEFL</t>
-  </si>
-  <si>
-    <t>PBCEFP</t>
-  </si>
-  <si>
-    <t>PBCEGP</t>
-  </si>
-  <si>
-    <t>PBCEGU</t>
-  </si>
-  <si>
-    <t>PBCEHB</t>
-  </si>
-  <si>
-    <t>PBCEHF</t>
-  </si>
-  <si>
-    <t>PBCEHM</t>
-  </si>
-  <si>
-    <t>PBCEHX</t>
-  </si>
-  <si>
-    <t>PBCEHY</t>
-  </si>
-  <si>
-    <t>PBCEHZ</t>
-  </si>
-  <si>
-    <t>PBCEID</t>
-  </si>
-  <si>
-    <t>PBCEIH</t>
-  </si>
-  <si>
-    <t>PBCEIS</t>
-  </si>
-  <si>
-    <t>PBCEIZ</t>
-  </si>
-  <si>
-    <t>PBCEJE</t>
-  </si>
-  <si>
-    <t>PBCEJM</t>
-  </si>
-  <si>
-    <t>PBCEJN</t>
-  </si>
-  <si>
-    <t>PBCEKF</t>
-  </si>
-  <si>
-    <t>PBCEKG</t>
-  </si>
-  <si>
-    <t>PBCEKK</t>
-  </si>
-  <si>
-    <t>PBCEKM</t>
-  </si>
-  <si>
-    <t>PBCEKU</t>
-  </si>
-  <si>
-    <t>PBCEKW</t>
-  </si>
-  <si>
-    <t>PBCELG</t>
-  </si>
-  <si>
-    <t>PBCELM</t>
-  </si>
-  <si>
-    <t>PBCELV</t>
-  </si>
-  <si>
-    <t>PBCEML</t>
-  </si>
-  <si>
-    <t>PBCEMR</t>
-  </si>
-  <si>
-    <t>PBCENA</t>
-  </si>
-  <si>
-    <t>PBCENC</t>
-  </si>
-  <si>
-    <t>PBCEND</t>
-  </si>
-  <si>
-    <t>PBCENE</t>
-  </si>
-  <si>
-    <t>PBCENF</t>
-  </si>
-  <si>
-    <t>PBCENI</t>
-  </si>
-  <si>
-    <t>PBCENU</t>
-  </si>
-  <si>
-    <t>PBCENX</t>
-  </si>
-  <si>
-    <t>PBCEPA</t>
-  </si>
-  <si>
-    <t>PBCEPC</t>
-  </si>
-  <si>
-    <t>PBCEPD</t>
-  </si>
-  <si>
-    <t>PBCEPF</t>
-  </si>
-  <si>
-    <t>PBCEPG</t>
-  </si>
-  <si>
-    <t>PBCEPM</t>
-  </si>
-  <si>
-    <t>PBCEPN</t>
-  </si>
-  <si>
-    <t>PBCERI</t>
-  </si>
-  <si>
-    <t>PBCERJ</t>
-  </si>
-  <si>
-    <t>PBCESA</t>
-  </si>
-  <si>
-    <t>PBCESI</t>
-  </si>
-  <si>
-    <t>PBCESL</t>
-  </si>
-  <si>
-    <t>PBCESN</t>
-  </si>
-  <si>
-    <t>PBCESR</t>
-  </si>
-  <si>
-    <t>PBCESS</t>
-  </si>
-  <si>
-    <t>PBCETG</t>
-  </si>
-  <si>
-    <t>PBCETK</t>
-  </si>
-  <si>
-    <t>PBCETX</t>
-  </si>
-  <si>
-    <t>PBCETZ</t>
-  </si>
-  <si>
-    <t>PBCEUG</t>
-  </si>
-  <si>
-    <t>PBCEUP</t>
-  </si>
-  <si>
-    <t>PBCEUU</t>
-  </si>
-  <si>
-    <t>PBCEVI</t>
-  </si>
-  <si>
-    <t>PBCEVK</t>
-  </si>
-  <si>
-    <t>PBCEVR</t>
-  </si>
-  <si>
-    <t>PBCEVY</t>
-  </si>
-  <si>
-    <t>PBCEWI</t>
-  </si>
-  <si>
-    <t>PBCEWM</t>
-  </si>
-  <si>
-    <t>PBCEWU</t>
-  </si>
-  <si>
-    <t>PBCEWW</t>
-  </si>
-  <si>
-    <t>PBCEWY</t>
-  </si>
-  <si>
-    <t>PBCEXH</t>
-  </si>
-  <si>
-    <t>PBCEXI</t>
-  </si>
-  <si>
-    <t>PBCEXT</t>
-  </si>
-  <si>
-    <t>PBCEYB</t>
-  </si>
-  <si>
-    <t>PBCEYL</t>
-  </si>
-  <si>
-    <t>PBCEYT</t>
-  </si>
-  <si>
-    <t>PBCEZB</t>
-  </si>
-  <si>
-    <t>PBCEZL</t>
-  </si>
-  <si>
-    <t>PBCEZT</t>
-  </si>
-  <si>
-    <t>PBCFAF</t>
-  </si>
-  <si>
-    <t>PBCFAI</t>
-  </si>
-  <si>
-    <t>PBCFAK</t>
-  </si>
-  <si>
-    <t>PBCFAM</t>
-  </si>
-  <si>
-    <t>PBCFAS</t>
-  </si>
-  <si>
-    <t>PBCFAT</t>
-  </si>
-  <si>
-    <t>PBCFBC</t>
-  </si>
-  <si>
-    <t>PBCFBJ</t>
-  </si>
-  <si>
-    <t>PBCFBL</t>
-  </si>
-  <si>
-    <t>PBCFBX</t>
-  </si>
-  <si>
-    <t>PBCFCE</t>
-  </si>
-  <si>
-    <t>PBCFCV</t>
-  </si>
-  <si>
-    <t>PBCFDH</t>
-  </si>
-  <si>
-    <t>PBCFDI</t>
-  </si>
-  <si>
-    <t>PBCFDU</t>
-  </si>
-  <si>
-    <t>PBCFDV</t>
-  </si>
-  <si>
-    <t>PBCFEJ</t>
-  </si>
-  <si>
-    <t>PBCFEN</t>
-  </si>
-  <si>
-    <t>PBCFES</t>
-  </si>
-  <si>
-    <t>PBCFEW</t>
-  </si>
-  <si>
-    <t>PBCFEZ</t>
-  </si>
-  <si>
-    <t>PBCFFC</t>
-  </si>
-  <si>
-    <t>PBCFFP</t>
-  </si>
-  <si>
-    <t>PBCFFR</t>
-  </si>
-  <si>
-    <t>PBCFFU</t>
-  </si>
-  <si>
-    <t>PBCFFV</t>
-  </si>
-  <si>
-    <t>PBCFFX</t>
-  </si>
-  <si>
-    <t>PBCFFY</t>
-  </si>
-  <si>
-    <t>PBCFGF</t>
-  </si>
-  <si>
-    <t>PBCFGG</t>
-  </si>
-  <si>
-    <t>PBCFGM</t>
-  </si>
-  <si>
-    <t>PBCFGT</t>
-  </si>
-  <si>
-    <t>PBCFGV</t>
-  </si>
-  <si>
-    <t>PBCFGY</t>
-  </si>
-  <si>
-    <t>PBCFGZ</t>
-  </si>
-  <si>
-    <t>PBCFHA</t>
-  </si>
-  <si>
-    <t>PBCFHT</t>
-  </si>
-  <si>
-    <t>PBCFHV</t>
-  </si>
-  <si>
-    <t>PBCFHZ</t>
-  </si>
-  <si>
-    <t>PBCFID</t>
-  </si>
-  <si>
-    <t>PBCFIG</t>
-  </si>
-  <si>
-    <t>PBCFIH</t>
-  </si>
-  <si>
-    <t>PBCFIJ</t>
-  </si>
-  <si>
-    <t>PBCFIL</t>
-  </si>
-  <si>
-    <t>PBCFIS</t>
-  </si>
-  <si>
-    <t>PBCFIU</t>
-  </si>
-  <si>
-    <t>PBCFIX</t>
-  </si>
-  <si>
-    <t>PBCFIZ</t>
-  </si>
-  <si>
-    <t>PBCFJK</t>
-  </si>
-  <si>
-    <t>PBCFJL</t>
-  </si>
-  <si>
-    <t>PBCFJS</t>
-  </si>
-  <si>
-    <t>PBCFJW</t>
-  </si>
-  <si>
-    <t>PBCFKA</t>
-  </si>
-  <si>
-    <t>PBCFKC</t>
-  </si>
-  <si>
-    <t>PBCFKF</t>
-  </si>
-  <si>
-    <t>PBCFKK</t>
-  </si>
-  <si>
-    <t>PBCFKU</t>
-  </si>
-  <si>
-    <t>PBCFKW</t>
-  </si>
-  <si>
-    <t>PBCFKX</t>
-  </si>
-  <si>
-    <t>PBCFLD</t>
-  </si>
-  <si>
-    <t>PBCFLF</t>
-  </si>
-  <si>
-    <t>PBCFLK</t>
-  </si>
-  <si>
-    <t>PBCFLV</t>
-  </si>
-  <si>
-    <t>PBCFLY</t>
-  </si>
-  <si>
-    <t>PBCFMA</t>
-  </si>
-  <si>
-    <t>PBCFME</t>
-  </si>
-  <si>
-    <t>PBCFMH</t>
-  </si>
-  <si>
-    <t>PBCFMX</t>
-  </si>
-  <si>
-    <t>PBCFNC</t>
-  </si>
-  <si>
-    <t>PBCFND</t>
-  </si>
-  <si>
-    <t>PBCFNK</t>
-  </si>
-  <si>
-    <t>PBCFNL</t>
-  </si>
-  <si>
-    <t>PBCFNS</t>
-  </si>
-  <si>
-    <t>PBCFNW</t>
-  </si>
-  <si>
-    <t>PBCFPA</t>
-  </si>
-  <si>
-    <t>PBCFPD</t>
-  </si>
-  <si>
-    <t>PBCFPF</t>
-  </si>
-  <si>
-    <t>PBCFPG</t>
-  </si>
-  <si>
-    <t>PBCFPI</t>
-  </si>
-  <si>
-    <t>PBCFPP</t>
-  </si>
-  <si>
-    <t>PBCFPR</t>
-  </si>
-  <si>
-    <t>PBCFPT</t>
-  </si>
-  <si>
-    <t>PBCFPX</t>
-  </si>
-  <si>
-    <t>PBCFPY</t>
-  </si>
-  <si>
-    <t>PBCFRD</t>
-  </si>
-  <si>
-    <t>PBCFRE</t>
-  </si>
-  <si>
-    <t>PBCFRH</t>
-  </si>
-  <si>
-    <t>PBCFRK</t>
-  </si>
-  <si>
-    <t>PBCFRM</t>
-  </si>
-  <si>
-    <t>PBCFRR</t>
-  </si>
-  <si>
-    <t>PBCFRZ</t>
-  </si>
-  <si>
-    <t>PBCFSC</t>
-  </si>
-  <si>
-    <t>PBCFSF</t>
-  </si>
-  <si>
-    <t>PBCFSP</t>
-  </si>
-  <si>
-    <t>PBCFSS</t>
-  </si>
-  <si>
-    <t>PBCFTE</t>
-  </si>
-  <si>
-    <t>PBCFTL</t>
-  </si>
-  <si>
-    <t>PBCFTR</t>
-  </si>
-  <si>
-    <t>PBCFUG</t>
-  </si>
-  <si>
-    <t>PBCFUI</t>
-  </si>
-  <si>
-    <t>PBCFUJ</t>
-  </si>
-  <si>
-    <t>PBCFUK</t>
-  </si>
-  <si>
-    <t>PBCFUR</t>
-  </si>
-  <si>
-    <t>PBCFVA</t>
-  </si>
-  <si>
-    <t>PBCFVD</t>
-  </si>
-  <si>
-    <t>PBCFVW</t>
-  </si>
-  <si>
-    <t>PBCFXX</t>
-  </si>
-  <si>
-    <t>PBCFXZ</t>
-  </si>
-  <si>
-    <t>PBCFYA</t>
-  </si>
-  <si>
-    <t>PBCFYF</t>
-  </si>
-  <si>
-    <t>PBCFYG</t>
-  </si>
-  <si>
-    <t>PBCFYY</t>
-  </si>
-  <si>
-    <t>PBCFYZ</t>
-  </si>
-  <si>
-    <t>PBCFZB</t>
-  </si>
-  <si>
-    <t>PBCFZC</t>
-  </si>
-  <si>
-    <t>PBCFZD</t>
-  </si>
-  <si>
-    <t>PBCFZF</t>
-  </si>
-  <si>
-    <t>PBCFZS</t>
-  </si>
-  <si>
-    <t>PBCFZU</t>
-  </si>
-  <si>
-    <t>PBCFZW</t>
-  </si>
-  <si>
-    <t>PBCFZX</t>
-  </si>
-  <si>
-    <t>PBCGAA</t>
-  </si>
-  <si>
-    <t>PBCGAV</t>
-  </si>
-  <si>
-    <t>PBCGAX</t>
-  </si>
-  <si>
-    <t>PBCGBB</t>
-  </si>
-  <si>
-    <t>PBCGBH</t>
-  </si>
-  <si>
-    <t>PBCGBM</t>
-  </si>
-  <si>
-    <t>PBCGBP</t>
-  </si>
-  <si>
-    <t>PBCGBS</t>
-  </si>
-  <si>
-    <t>PBCGBT</t>
-  </si>
-  <si>
-    <t>PBCGCC</t>
-  </si>
-  <si>
-    <t>PBCGCG</t>
-  </si>
-  <si>
-    <t>PBCGDB</t>
-  </si>
-  <si>
-    <t>PBCGDC</t>
-  </si>
-  <si>
-    <t>PBCGDF</t>
-  </si>
-  <si>
-    <t>PBCGDG</t>
-  </si>
-  <si>
-    <t>PBCGDN</t>
-  </si>
-  <si>
-    <t>PBCGEB</t>
-  </si>
-  <si>
-    <t>PBCGEE</t>
-  </si>
-  <si>
-    <t>PBCGEG</t>
-  </si>
-  <si>
-    <t>PBCGEH</t>
-  </si>
-  <si>
-    <t>PBCGEI</t>
-  </si>
-  <si>
-    <t>PBCGEL</t>
-  </si>
-  <si>
-    <t>PBCGET</t>
-  </si>
-  <si>
-    <t>PBCGFA</t>
-  </si>
-  <si>
-    <t>PBCGFC</t>
-  </si>
-  <si>
-    <t>PBCGFJ</t>
-  </si>
-  <si>
-    <t>PBCGFL</t>
-  </si>
-  <si>
-    <t>PBCGFM</t>
-  </si>
-  <si>
-    <t>PBCGFX</t>
-  </si>
-  <si>
-    <t>PBCGGF</t>
-  </si>
-  <si>
-    <t>PBCGGM</t>
-  </si>
-  <si>
-    <t>PBCGGS</t>
-  </si>
-  <si>
-    <t>PBCGHD</t>
-  </si>
-  <si>
-    <t>PBCGHI</t>
-  </si>
-  <si>
-    <t>PBCGHM</t>
-  </si>
-  <si>
-    <t>PBCGHR</t>
-  </si>
-  <si>
-    <t>PBCGHV</t>
-  </si>
-  <si>
-    <t>PBCGIB</t>
-  </si>
-  <si>
-    <t>PBCGIW</t>
-  </si>
-  <si>
-    <t>PBCGIZ</t>
-  </si>
-  <si>
-    <t>PBCGJI</t>
-  </si>
-  <si>
-    <t>PBCGJN</t>
-  </si>
-  <si>
-    <t>PBCGJV</t>
-  </si>
-  <si>
-    <t>PBCGKK</t>
-  </si>
-  <si>
-    <t>PBCGKM</t>
-  </si>
-  <si>
-    <t>PBCGKW</t>
-  </si>
-  <si>
-    <t>PBCGKZ</t>
-  </si>
-  <si>
-    <t>PBCGLA</t>
-  </si>
-  <si>
-    <t>PBCGLD</t>
-  </si>
-  <si>
-    <t>PBCGLE</t>
-  </si>
-  <si>
-    <t>PBCGLF</t>
-  </si>
-  <si>
-    <t>PBCGLY</t>
-  </si>
-  <si>
-    <t>PBCGLZ</t>
-  </si>
-  <si>
-    <t>PBCGMK</t>
-  </si>
-  <si>
-    <t>PBCGMP</t>
-  </si>
-  <si>
-    <t>PBCGMS</t>
-  </si>
-  <si>
-    <t>PBCGNH</t>
-  </si>
-  <si>
-    <t>PBCGNN</t>
-  </si>
-  <si>
-    <t>PBCGNR</t>
-  </si>
-  <si>
-    <t>PBCGNX</t>
-  </si>
-  <si>
-    <t>PBCGPB</t>
-  </si>
-  <si>
-    <t>PBCGPD</t>
-  </si>
-  <si>
-    <t>PBCGPF</t>
-  </si>
-  <si>
-    <t>PBCGPJ</t>
-  </si>
-  <si>
-    <t>PBCGPN</t>
-  </si>
-  <si>
-    <t>PBCGPR</t>
-  </si>
-  <si>
-    <t>PBCGPX</t>
-  </si>
-  <si>
-    <t>PBCGRA</t>
-  </si>
-  <si>
-    <t>PBCGRB</t>
-  </si>
-  <si>
-    <t>PBCGRI</t>
-  </si>
-  <si>
-    <t>PBCGRJ</t>
-  </si>
-  <si>
-    <t>PBCGRW</t>
-  </si>
-  <si>
-    <t>PBCGSK</t>
-  </si>
-  <si>
-    <t>PBCGSP</t>
-  </si>
-  <si>
-    <t>PBCGTA</t>
-  </si>
-  <si>
-    <t>PBCGTD</t>
-  </si>
-  <si>
-    <t>PBCGTH</t>
-  </si>
-  <si>
-    <t>PBCGTV</t>
-  </si>
-  <si>
-    <t>PBCGUB</t>
-  </si>
-  <si>
-    <t>PBCGUH</t>
-  </si>
-  <si>
-    <t>PBCGUR</t>
-  </si>
-  <si>
-    <t>PBCGVF</t>
-  </si>
-  <si>
-    <t>PBCGVG</t>
-  </si>
-  <si>
-    <t>PBCGVH</t>
-  </si>
-  <si>
-    <t>PBCGVV</t>
-  </si>
-  <si>
-    <t>PBCGVW</t>
-  </si>
-  <si>
-    <t>PBCGWB</t>
-  </si>
-  <si>
-    <t>PBCGWP</t>
-  </si>
-  <si>
-    <t>PBCGWW</t>
-  </si>
-  <si>
-    <t>PBCGWZ</t>
-  </si>
-  <si>
-    <t>PBCGXF</t>
-  </si>
-  <si>
-    <t>PBCGXI</t>
-  </si>
-  <si>
-    <t>PBCGXV</t>
-  </si>
-  <si>
-    <t>PBCGYI</t>
-  </si>
-  <si>
-    <t>PBCGYJ</t>
-  </si>
-  <si>
-    <t>PBCGYP</t>
-  </si>
-  <si>
-    <t>PBCGYU</t>
-  </si>
-  <si>
-    <t>PBCGYZ</t>
-  </si>
-  <si>
-    <t>PBCGZA</t>
-  </si>
-  <si>
-    <t>PBCGZE</t>
-  </si>
-  <si>
-    <t>PBCHAP</t>
-  </si>
-  <si>
-    <t>PBCHAR</t>
-  </si>
-  <si>
-    <t>PBCHAS</t>
-  </si>
-  <si>
-    <t>PBCHAU</t>
-  </si>
-  <si>
-    <t>PBCHBP</t>
-  </si>
-  <si>
-    <t>PBCHBW</t>
-  </si>
-  <si>
-    <t>PBCHCB</t>
-  </si>
-  <si>
-    <t>PBCHCI</t>
-  </si>
-  <si>
-    <t>PBCHCZ</t>
-  </si>
-  <si>
-    <t>PBCHDK</t>
-  </si>
-  <si>
-    <t>PBCHDM</t>
-  </si>
-  <si>
-    <t>PBCHDP</t>
-  </si>
-  <si>
-    <t>PBCHDY</t>
-  </si>
-  <si>
-    <t>PBCHEC</t>
-  </si>
-  <si>
-    <t>PBCHEH</t>
-  </si>
-  <si>
-    <t>PBCHET</t>
-  </si>
-  <si>
-    <t>PBCHEU</t>
-  </si>
-  <si>
-    <t>PBCHEX</t>
-  </si>
-  <si>
-    <t>PBCHEY</t>
-  </si>
-  <si>
-    <t>PBCHFE</t>
-  </si>
-  <si>
-    <t>PBCHFI</t>
-  </si>
-  <si>
-    <t>PBCHFL</t>
-  </si>
-  <si>
-    <t>PBCHFP</t>
-  </si>
-  <si>
-    <t>PBCHFU</t>
-  </si>
-  <si>
-    <t>PBCHGB</t>
-  </si>
-  <si>
-    <t>PBCHGG</t>
-  </si>
-  <si>
-    <t>PBCHHD</t>
-  </si>
-  <si>
-    <t>PBCHHF</t>
-  </si>
-  <si>
-    <t>PBCHHZ</t>
-  </si>
-  <si>
-    <t>PBCHIA</t>
-  </si>
-  <si>
-    <t>PBCHIB</t>
-  </si>
-  <si>
-    <t>PBCHIC</t>
-  </si>
-  <si>
-    <t>PBCHJA</t>
-  </si>
-  <si>
-    <t>PBCHJB</t>
-  </si>
-  <si>
-    <t>PBCHJE</t>
-  </si>
-  <si>
-    <t>PBCHJK</t>
-  </si>
-  <si>
-    <t>PBCHJR</t>
-  </si>
-  <si>
-    <t>PBCHJU</t>
-  </si>
-  <si>
-    <t>PBCHJX</t>
-  </si>
-  <si>
-    <t>PBCHKB</t>
-  </si>
-  <si>
-    <t>PBCHKE</t>
-  </si>
-  <si>
-    <t>PBCHKF</t>
-  </si>
-  <si>
-    <t>PBCHKG</t>
-  </si>
-  <si>
-    <t>PBCHKY</t>
-  </si>
-  <si>
-    <t>PBCHLB</t>
-  </si>
-  <si>
-    <t>PBCHLH</t>
-  </si>
-  <si>
-    <t>PBCHLM</t>
-  </si>
-  <si>
-    <t>PBCHLS</t>
-  </si>
-  <si>
-    <t>PBCHLU</t>
-  </si>
-  <si>
-    <t>PBCHMG</t>
-  </si>
-  <si>
-    <t>PBCHMS</t>
-  </si>
-  <si>
-    <t>PBCHMT</t>
-  </si>
-  <si>
-    <t>PBCHMW</t>
-  </si>
-  <si>
-    <t>PBCHMY</t>
-  </si>
-  <si>
-    <t>PBCHNC</t>
-  </si>
-  <si>
-    <t>PBCHND</t>
-  </si>
-  <si>
-    <t>PBCHNH</t>
-  </si>
-  <si>
-    <t>PBCHNL</t>
-  </si>
-  <si>
-    <t>PBCHPC</t>
-  </si>
-  <si>
-    <t>PBCHPH</t>
-  </si>
-  <si>
-    <t>PBCHPI</t>
-  </si>
-  <si>
-    <t>PBCHPL</t>
-  </si>
-  <si>
-    <t>PBCHPP</t>
-  </si>
-  <si>
-    <t>PBCHPZ</t>
-  </si>
-  <si>
-    <t>PBCHRE</t>
-  </si>
-  <si>
-    <t>PBCHRJ</t>
-  </si>
-  <si>
-    <t>PBCHRS</t>
-  </si>
-  <si>
-    <t>PBCHRZ</t>
-  </si>
-  <si>
-    <t>PBCHSW</t>
-  </si>
-  <si>
-    <t>PBCHTA</t>
-  </si>
-  <si>
-    <t>PBCHTB</t>
-  </si>
-  <si>
-    <t>PBCHTC</t>
-  </si>
-  <si>
-    <t>PBCHTG</t>
-  </si>
-  <si>
-    <t>PBCHTI</t>
-  </si>
-  <si>
-    <t>PBCHTN</t>
-  </si>
-  <si>
-    <t>PBCHUB</t>
-  </si>
-  <si>
-    <t>PBCHUF</t>
-  </si>
-  <si>
-    <t>PBCHUX</t>
-  </si>
-  <si>
-    <t>PBCHVI</t>
-  </si>
-  <si>
-    <t>PBCHVN</t>
-  </si>
-  <si>
-    <t>PBCHVP</t>
-  </si>
-  <si>
-    <t>PBCHVU</t>
-  </si>
-  <si>
-    <t>PBCHVV</t>
-  </si>
-  <si>
-    <t>PBCHVW</t>
-  </si>
-  <si>
-    <t>PBCHWK</t>
-  </si>
-  <si>
-    <t>PBCHWV</t>
-  </si>
-  <si>
-    <t>PBCHXF</t>
-  </si>
-  <si>
-    <t>PBCHXI</t>
-  </si>
-  <si>
-    <t>PBCHXM</t>
-  </si>
-  <si>
-    <t>PBCHYB</t>
-  </si>
-  <si>
-    <t>PBCHYC</t>
-  </si>
-  <si>
-    <t>PBCHYK</t>
-  </si>
-  <si>
-    <t>PBCHYM</t>
-  </si>
-  <si>
-    <t>PBCHZA</t>
-  </si>
-  <si>
-    <t>PBCHZK</t>
-  </si>
-  <si>
-    <t>PBCHZW</t>
-  </si>
-  <si>
-    <t>PBCHZX</t>
-  </si>
-  <si>
-    <t>PBCIAA</t>
-  </si>
-  <si>
-    <t>PBCIAB</t>
-  </si>
-  <si>
-    <t>PBCIAM</t>
-  </si>
-  <si>
-    <t>PBCIAP</t>
-  </si>
-  <si>
-    <t>PBCIAR</t>
-  </si>
-  <si>
-    <t>PBCIAW</t>
-  </si>
-  <si>
-    <t>PBCIBC</t>
-  </si>
-  <si>
-    <t>PBCIBF</t>
-  </si>
-  <si>
-    <t>PBCIBJ</t>
-  </si>
-  <si>
-    <t>PBCIBU</t>
-  </si>
-  <si>
-    <t>PBCIBZ</t>
-  </si>
-  <si>
-    <t>PBCICB</t>
-  </si>
-  <si>
-    <t>PBCICF</t>
-  </si>
-  <si>
-    <t>PBCICP</t>
-  </si>
-  <si>
-    <t>PBCICT</t>
-  </si>
-  <si>
-    <t>PBCICY</t>
-  </si>
-  <si>
-    <t>PBCICZ</t>
-  </si>
-  <si>
-    <t>PBCIDB</t>
-  </si>
-  <si>
-    <t>PBCIDN</t>
-  </si>
-  <si>
-    <t>PBCIDP</t>
-  </si>
-  <si>
-    <t>PBCIDX</t>
-  </si>
-  <si>
-    <t>PBCIED</t>
-  </si>
-  <si>
-    <t>PBCIEE</t>
-  </si>
-  <si>
-    <t>PBCIEF</t>
-  </si>
-  <si>
-    <t>PBCIEH</t>
-  </si>
-  <si>
-    <t>PBCIFC</t>
-  </si>
-  <si>
-    <t>PBCIGD</t>
-  </si>
-  <si>
-    <t>PBCIGV</t>
-  </si>
-  <si>
-    <t>PBCIHB</t>
-  </si>
-  <si>
-    <t>PBCIIP</t>
-  </si>
-  <si>
-    <t>PBCIJM</t>
-  </si>
-  <si>
-    <t>PBCIKM</t>
-  </si>
-  <si>
-    <t>PBCIKN</t>
-  </si>
-  <si>
-    <t>PBCIKU</t>
-  </si>
-  <si>
-    <t>PBCILI</t>
-  </si>
-  <si>
-    <t>PBCIMG</t>
-  </si>
-  <si>
-    <t>PBCINL</t>
-  </si>
-  <si>
-    <t>PBCIPB</t>
-  </si>
-  <si>
-    <t>PBCIPG</t>
-  </si>
-  <si>
-    <t>PBCIPL</t>
-  </si>
-  <si>
-    <t>PBCIRS</t>
-  </si>
-  <si>
-    <t>PBCIRT</t>
-  </si>
-  <si>
-    <t>PBCIRX</t>
-  </si>
-  <si>
-    <t>PBCIUX</t>
-  </si>
-  <si>
-    <t>PBCIVE</t>
-  </si>
-  <si>
-    <t>PBCIWV</t>
   </si>
 </sst>
 </file>
@@ -4623,10 +2508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA066D6-826D-4E2E-8ABB-2731BC7E68A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A1405"/>
+  <dimension ref="A1:A700"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
+      <selection activeCell="A701" sqref="A701:XFD1405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8131,3531 +6016,6 @@
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A701" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A717" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A718" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A719" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A720" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A722" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A723" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A724" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A725" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A726" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A727" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A728" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A729" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A730" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A731" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A732" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A733" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A734" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A735" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A736" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A737" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A738" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A764" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A765" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A766" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A767" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A768" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A769" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A770" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A771" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A772" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A773" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A774" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A775" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A776" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A777" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A778" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A779" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A780" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A781" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A782" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A783" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A784" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A785" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A786" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A787" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A788" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A789" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A790" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A791" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A792" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A793" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A794" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A795" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A796" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A797" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A798" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A799" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A800" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A801" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A802" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A803" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A804" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A805" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A806" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A807" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A808" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A809" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A810" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A811" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A812" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A813" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A814" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A815" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A816" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A817" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A818" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A819" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A820" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A821" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A822" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A823" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A824" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A825" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A826" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A827" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A828" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A829" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A830" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A831" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A832" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A833" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A834" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A835" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A836" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A837" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A838" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A839" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A840" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A841" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A842" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A843" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A844" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A845" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A846" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A847" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A848" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A849" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A850" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A851" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A852" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A853" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A854" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A855" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A856" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A857" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A858" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A859" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A860" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A861" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A862" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A863" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A864" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A865" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A866" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A867" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A868" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A869" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A870" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A871" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A872" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A873" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A874" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A875" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A876" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A877" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A878" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A879" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A880" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A881" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A882" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A883" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A884" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A885" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A886" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A887" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A888" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A889" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A890" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A891" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A892" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A893" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A894" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A895" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A896" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A897" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A898" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A899" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A900" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A901" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A902" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A903" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A904" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A905" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A906" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A907" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A908" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A909" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A910" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A911" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A912" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A913" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A914" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A915" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A916" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A917" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A918" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A919" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A920" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A921" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A922" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A923" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A924" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A925" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A926" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A927" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A928" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A929" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A930" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A931" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A932" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A933" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A934" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A935" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A936" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A937" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A938" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A939" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A940" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A941" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A942" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A943" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A944" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A945" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A946" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A947" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A948" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A949" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A950" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A951" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A952" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A953" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A954" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A955" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A956" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A957" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A958" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A959" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A960" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A961" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A962" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A963" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A964" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A965" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A966" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A967" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A968" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A969" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A970" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A971" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A972" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A973" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A974" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A975" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A976" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A977" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A978" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A979" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A980" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A981" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A982" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A983" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A984" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A985" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A986" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A987" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A988" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A989" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A990" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A991" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A992" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A993" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A994" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A995" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A996" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A997" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A998" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A999" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1000" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1001" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1002" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1003" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1004" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1005" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1006" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1007" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1008" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1009" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1010" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1011" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1012" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1013" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1014" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1015" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1016" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1017" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1018" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1019" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1020" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1021" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1022" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1023" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1024" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1025" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1026" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1027" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1028" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1029" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1030" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1031" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1032" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1033" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1034" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1035" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1036" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1037" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1038" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1039" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1040" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1041" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1042" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1043" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1044" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1045" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1046" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1047" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1048" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1049" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1050" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1051" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1052" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1053" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1054" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1055" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1056" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1057" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1058" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1059" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1060" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1061" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1062" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1063" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1064" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1065" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1066" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1067" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1068" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1069" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1070" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1071" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1072" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1073" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1074" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1075" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1076" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1077" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1078" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1079" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1080" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1081" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1082" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1083" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1084" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1085" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1086" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1087" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1088" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1089" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1090" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1091" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1092" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1093" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1094" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1095" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1096" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1097" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1098" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1099" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1100" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1101" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1102" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1103" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1104" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1105" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1106" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1107" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1108" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1109" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1110" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1111" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1112" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1113" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1114" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1115" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1116" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1117" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1118" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1119" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1120" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1121" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1122" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1123" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1124" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1125" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1126" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1127" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1128" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1129" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1130" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1131" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1132" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1133" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1134" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1135" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1136" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1137" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1138" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1139" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1140" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1141" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1142" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1143" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1144" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1145" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1146" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1147" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1148" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1149" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1150" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1151" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1152" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1153" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1154" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1155" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1156" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1157" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1158" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1159" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1160" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1161" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1162" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1163" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1164" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1165" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1166" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1167" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1168" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1169" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1170" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1171" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1172" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1173" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1174" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1175" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1176" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1177" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1178" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1179" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1180" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1181" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1182" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1183" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1184" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1185" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1186" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1187" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1188" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1189" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1190" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1191" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1192" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1193" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1194" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1195" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1196" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1197" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1198" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1199" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1200" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1201" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1202" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1203" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1204" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1205" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1206" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1207" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1208" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1209" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1210" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1211" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1212" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1213" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1214" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1215" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1216" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1217" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1218" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1219" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1220" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1221" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1222" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1223" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1224" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1225" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1226" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1227" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1228" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1229" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1230" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1231" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1232" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1233" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1234" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1235" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1236" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1237" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1238" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1239" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1240" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1241" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1242" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1243" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1244" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1245" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1246" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1247" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1248" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1249" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1250" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1251" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1252" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1253" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1254" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1255" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1256" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1257" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1258" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1259" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1260" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1261" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1262" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1263" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1264" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1265" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1266" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1267" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1268" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1269" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1270" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1271" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1272" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1273" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1274" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1275" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1276" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1277" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1278" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1279" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1280" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1281" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1282" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1283" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1284" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1285" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1286" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1287" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1288" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1289" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1290" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1291" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1292" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1293" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1294" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1295" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1296" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1297" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1298" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1299" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1300" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1301" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1302" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1303" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1304" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1305" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1306" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1307" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1308" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1309" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1310" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1311" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1312" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1313" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1314" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1315" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1316" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1317" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1318" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1319" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1320" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1321" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1322" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1323" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1324" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1325" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1326" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1327" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1328" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1329" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1330" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1331" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1332" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1333" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1334" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1335" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1336" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1337" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1338" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1339" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1340" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1341" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1342" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1343" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1344" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1345" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1346" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1347" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1348" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1349" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1350" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1351" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1352" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1353" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1354" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1355" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1356" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1357" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1358" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1359" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1360" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1361" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1362" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1363" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1364" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1365" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1366" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1367" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1368" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1369" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1370" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1371" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1372" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1373" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1374" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1375" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1376" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1377" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1378" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1379" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1380" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1381" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1382" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1383" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1384" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1385" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1386" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1387" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1388" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1389" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1390" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1391" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1392" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1393" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1394" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1395" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1396" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1397" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1398" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1399" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1400" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1401" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1402" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1403" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1404" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1405" t="s">
-        <v>1404</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
